--- a/decadeCap_Results.xlsx
+++ b/decadeCap_Results.xlsx
@@ -445,10 +445,10 @@
         <v>1591.5</v>
       </c>
       <c r="G2" t="n">
-        <v>19.63</v>
+        <v>19.84</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I2" t="n">
         <v>10</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L2" t="n">
         <v>10</v>
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O2" t="n">
         <v>10</v>
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.227809872887403e-12</v>
+        <v>3.227792122584998e-12</v>
       </c>
       <c r="R2" t="n">
         <v>2.08946806431709</v>
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1591.5</v>
       </c>
       <c r="G3" t="n">
-        <v>19.63</v>
+        <v>19.75</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I3" t="n">
         <v>10</v>
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L3" t="n">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O3" t="n">
         <v>10</v>
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>3.059034593755196e-15</v>
+        <v>2.937864511893691e-15</v>
       </c>
       <c r="U3" t="n">
         <v>2.446911848791681</v>
@@ -574,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.225772763589529e-15</v>
+        <v>1.203764731820176e-15</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.620078734591439e-11</v>
+        <v>1.593069716301892e-11</v>
       </c>
     </row>
     <row r="4">
@@ -595,19 +595,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>100074</v>
+        <v>100013</v>
       </c>
       <c r="E4" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
         <v>1591.5</v>
       </c>
       <c r="G4" t="n">
-        <v>19.66</v>
+        <v>19.76</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I4" t="n">
         <v>10</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L4" t="n">
         <v>10</v>
@@ -625,43 +625,43 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O4" t="n">
         <v>10</v>
       </c>
       <c r="P4" t="n">
-        <v>1.00033561786623e-07</v>
+        <v>9.997300627850533e-08</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.426023998825788e-11</v>
+        <v>1.197598162114327e-11</v>
       </c>
       <c r="R4" t="n">
-        <v>2.051885414116922</v>
+        <v>2.023065012007338</v>
       </c>
       <c r="S4" t="n">
-        <v>4.299833599238081e-08</v>
+        <v>3.999845208593564e-08</v>
       </c>
       <c r="T4" t="n">
-        <v>5.658724260285236e-08</v>
+        <v>5.65719549086336e-08</v>
       </c>
       <c r="U4" t="n">
-        <v>2.015395396747551</v>
+        <v>2.015372412806524</v>
       </c>
       <c r="V4" t="n">
-        <v>4.298524487559522e-05</v>
+        <v>4.001049473245602e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>5.65700144322848e-05</v>
+        <v>5.658898747835172e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>2.015395396226841</v>
+        <v>2.015372413002627</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.201964132069296e-12</v>
+        <v>2.200609902858938e-12</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.702442361250915e-08</v>
+        <v>2.700780404293831e-08</v>
       </c>
     </row>
     <row r="5">
@@ -679,19 +679,19 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>200518</v>
+        <v>200413</v>
       </c>
       <c r="E5" t="n">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F5" t="n">
         <v>1591.5</v>
       </c>
       <c r="G5" t="n">
-        <v>19.66</v>
+        <v>19.75</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I5" t="n">
         <v>10</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L5" t="n">
         <v>10</v>
@@ -709,43 +709,43 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O5" t="n">
         <v>10</v>
       </c>
       <c r="P5" t="n">
-        <v>2.004871637231139e-07</v>
+        <v>2.003820518385264e-07</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.770138494012286e-11</v>
+        <v>2.299548482308663e-11</v>
       </c>
       <c r="R5" t="n">
-        <v>2.067284716672407</v>
+        <v>2.038069359261914</v>
       </c>
       <c r="S5" t="n">
-        <v>1.029960141212843e-07</v>
+        <v>8.999651719335519e-08</v>
       </c>
       <c r="T5" t="n">
-        <v>9.281508037776464e-08</v>
+        <v>9.276636892390693e-08</v>
       </c>
       <c r="U5" t="n">
-        <v>2.059673242032686</v>
+        <v>2.05963708287694</v>
       </c>
       <c r="V5" t="n">
-        <v>5.137446766937032e-05</v>
+        <v>4.491385910008421e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>4.629621266048719e-05</v>
+        <v>4.629618737013506e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>2.059673240185516</v>
+        <v>2.059637083777945</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.411943374672096e-12</v>
+        <v>4.4096089051794e-12</v>
       </c>
       <c r="Z5" t="n">
-        <v>5.414605375578174e-08</v>
+        <v>5.411740433820301e-08</v>
       </c>
     </row>
     <row r="6">
@@ -763,19 +763,19 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>300542</v>
+        <v>300376</v>
       </c>
       <c r="E6" t="n">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="F6" t="n">
         <v>1591.5</v>
       </c>
       <c r="G6" t="n">
-        <v>19.63</v>
+        <v>19.75</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I6" t="n">
         <v>10</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L6" t="n">
         <v>10</v>
@@ -793,43 +793,43 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O6" t="n">
         <v>10</v>
       </c>
       <c r="P6" t="n">
-        <v>3.00520725509737e-07</v>
+        <v>3.003540580269365e-07</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.234583123125451e-11</v>
+        <v>3.416276707417881e-11</v>
       </c>
       <c r="R6" t="n">
-        <v>2.074457775967272</v>
+        <v>2.041476135553304</v>
       </c>
       <c r="S6" t="n">
-        <v>1.529940792287038e-07</v>
+        <v>1.189953949556585e-07</v>
       </c>
       <c r="T6" t="n">
-        <v>1.49448140152075e-07</v>
+        <v>1.493350592472629e-07</v>
       </c>
       <c r="U6" t="n">
-        <v>2.092780303612019</v>
+        <v>2.092718155611333</v>
       </c>
       <c r="V6" t="n">
-        <v>5.091124110070258e-05</v>
+        <v>3.961960482713781e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>4.973127306619441e-05</v>
+        <v>4.972121850277881e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>2.092780300894942</v>
+        <v>2.092718156309841</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.612681733977803e-12</v>
+        <v>6.608993041324422e-12</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.115427658094499e-08</v>
+        <v>8.110900766803911e-08</v>
       </c>
     </row>
     <row r="7">
@@ -847,19 +847,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>400980</v>
+        <v>400767</v>
       </c>
       <c r="E7" t="n">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="F7" t="n">
         <v>1591.5</v>
       </c>
       <c r="G7" t="n">
-        <v>19.64</v>
+        <v>19.75</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I7" t="n">
         <v>10</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L7" t="n">
         <v>10</v>
@@ -877,43 +877,43 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O7" t="n">
         <v>10</v>
       </c>
       <c r="P7" t="n">
-        <v>4.009683268726583e-07</v>
+        <v>4.007541027761005e-07</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.590404410727866e-11</v>
+        <v>4.543873905444546e-11</v>
       </c>
       <c r="R7" t="n">
-        <v>2.074378939633377</v>
+        <v>2.042742285252231</v>
       </c>
       <c r="S7" t="n">
-        <v>2.42990596422059e-07</v>
+        <v>2.089919121490137e-07</v>
       </c>
       <c r="T7" t="n">
-        <v>2.294249489789472e-07</v>
+        <v>2.292273006865296e-07</v>
       </c>
       <c r="U7" t="n">
-        <v>2.135811224165218</v>
+        <v>2.135709715791278</v>
       </c>
       <c r="V7" t="n">
-        <v>6.060282752049613e-05</v>
+        <v>5.215128225747057e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>5.721950099754097e-05</v>
+        <v>5.720076692799798e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>2.135811219844791</v>
+        <v>2.135709716795439</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.822528963962071e-12</v>
+        <v>8.817794025806031e-12</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.082742866196731e-07</v>
+        <v>1.082161778198511e-07</v>
       </c>
     </row>
     <row r="8">
@@ -931,19 +931,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>500876</v>
+        <v>500576</v>
       </c>
       <c r="E8" t="n">
-        <v>398</v>
+        <v>346</v>
       </c>
       <c r="F8" t="n">
         <v>1591.5</v>
       </c>
       <c r="G8" t="n">
-        <v>19.65</v>
+        <v>19.75</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I8" t="n">
         <v>10</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L8" t="n">
         <v>10</v>
@@ -961,43 +961,43 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O8" t="n">
         <v>10</v>
       </c>
       <c r="P8" t="n">
-        <v>5.008738764231311e-07</v>
+        <v>5.00572095089847e-07</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.9174689032773e-11</v>
+        <v>5.667358043687852e-11</v>
       </c>
       <c r="R8" t="n">
-        <v>2.073685699389061</v>
+        <v>2.043337322995453</v>
       </c>
       <c r="S8" t="n">
-        <v>3.98984559557208e-07</v>
+        <v>3.459866105433433e-07</v>
       </c>
       <c r="T8" t="n">
-        <v>3.339056525093612e-07</v>
+        <v>3.335507868768541e-07</v>
       </c>
       <c r="U8" t="n">
-        <v>2.183322508304171</v>
+        <v>2.183180863529889</v>
       </c>
       <c r="V8" t="n">
-        <v>7.96601640713345e-05</v>
+        <v>6.912038446580254e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>6.666668811283711e-05</v>
+        <v>6.663598508944788e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>2.183322500707847</v>
+        <v>2.183180864993964</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.102045105407247e-11</v>
+        <v>1.101378985670845e-11</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.352479472145554e-07</v>
+        <v>1.35166198695051e-07</v>
       </c>
     </row>
     <row r="9">
@@ -1015,19 +1015,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>600902</v>
+        <v>600560</v>
       </c>
       <c r="E9" t="n">
-        <v>509</v>
+        <v>84</v>
       </c>
       <c r="F9" t="n">
         <v>1591.5</v>
       </c>
       <c r="G9" t="n">
-        <v>19.64</v>
+        <v>19.75</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I9" t="n">
         <v>10</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L9" t="n">
         <v>10</v>
@@ -1045,43 +1045,43 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O9" t="n">
         <v>10</v>
       </c>
       <c r="P9" t="n">
-        <v>6.009094384009442e-07</v>
+        <v>6.005651031702566e-07</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.366072014670601e-11</v>
+        <v>6.794024367775919e-11</v>
       </c>
       <c r="R9" t="n">
-        <v>2.075259332275157</v>
+        <v>2.043664869380213</v>
       </c>
       <c r="S9" t="n">
-        <v>5.099802640956793e-07</v>
+        <v>8.399674938046484e-08</v>
       </c>
       <c r="T9" t="n">
-        <v>4.640184046896694e-07</v>
+        <v>4.635254042251036e-07</v>
       </c>
       <c r="U9" t="n">
-        <v>2.227226738116348</v>
+        <v>2.227085931247245</v>
       </c>
       <c r="V9" t="n">
-        <v>8.487070948604269e-05</v>
+        <v>1.398671981098429e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>7.722175570133231e-05</v>
+        <v>7.718393868733395e-05</v>
       </c>
       <c r="X9" t="n">
-        <v>2.227226729485324</v>
+        <v>2.227085931297565</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.322123341758436e-11</v>
+        <v>1.321363603447747e-11</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.622567100745669e-07</v>
+        <v>1.621634723596102e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1099,19 +1099,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>701345</v>
+        <v>700940</v>
       </c>
       <c r="E10" t="n">
-        <v>709</v>
+        <v>522</v>
       </c>
       <c r="F10" t="n">
         <v>1591.5</v>
       </c>
       <c r="G10" t="n">
-        <v>19.64</v>
+        <v>19.75</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I10" t="n">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L10" t="n">
         <v>10</v>
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O10" t="n">
         <v>10</v>
       </c>
       <c r="P10" t="n">
-        <v>7.013620402418399e-07</v>
+        <v>7.009541469283735e-07</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.76160850369034e-11</v>
+        <v>7.92585094496125e-11</v>
       </c>
       <c r="R10" t="n">
-        <v>2.075448599820832</v>
+        <v>2.043864186102736</v>
       </c>
       <c r="S10" t="n">
-        <v>7.099725245253576e-07</v>
+        <v>5.219797997214601e-07</v>
       </c>
       <c r="T10" t="n">
-        <v>6.203294924697855e-07</v>
+        <v>6.196414282781775e-07</v>
       </c>
       <c r="U10" t="n">
-        <v>2.264442622838239</v>
+        <v>2.264305456599748</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0001012308244611237</v>
+        <v>7.446935214666726e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>8.844914980362215e-05</v>
+        <v>8.840245493091385e-05</v>
       </c>
       <c r="X10" t="n">
-        <v>2.264442611484106</v>
+        <v>2.264305457805065</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.543119065808406e-11</v>
+        <v>1.542219499715603e-11</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.893780702004153e-07</v>
+        <v>1.892676723360911e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1183,19 +1183,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>801368</v>
+        <v>800803</v>
       </c>
       <c r="E11" t="n">
-        <v>967</v>
+        <v>736</v>
       </c>
       <c r="F11" t="n">
         <v>1591.5</v>
       </c>
       <c r="G11" t="n">
-        <v>19.64</v>
+        <v>19.75</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I11" t="n">
         <v>10</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L11" t="n">
         <v>10</v>
@@ -1213,43 +1213,43 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O11" t="n">
         <v>10</v>
       </c>
       <c r="P11" t="n">
-        <v>8.013946019328679e-07</v>
+        <v>8.008261441072615e-07</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.115164541558164e-10</v>
+        <v>9.052281906460235e-11</v>
       </c>
       <c r="R11" t="n">
-        <v>2.075571091046708</v>
+        <v>2.043993280604797</v>
       </c>
       <c r="S11" t="n">
-        <v>9.679625404796425e-07</v>
+        <v>7.359715183812158e-07</v>
       </c>
       <c r="T11" t="n">
-        <v>8.013542888148934e-07</v>
+        <v>8.002525535242833e-07</v>
       </c>
       <c r="U11" t="n">
-        <v>2.294564954663035</v>
+        <v>2.294411147193653</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0001207885107299261</v>
+        <v>9.190438930808746e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>9.999807574054673e-05</v>
+        <v>9.993147883359838e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>2.294564940097035</v>
+        <v>2.294411148755183</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.763190701528668e-11</v>
+        <v>1.761937893509157e-11</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.163860230081545e-07</v>
+        <v>2.162322740720075e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1267,19 +1267,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>901808</v>
+        <v>901292</v>
       </c>
       <c r="E12" t="n">
-        <v>1295</v>
+        <v>1013</v>
       </c>
       <c r="F12" t="n">
         <v>1591.5</v>
       </c>
       <c r="G12" t="n">
-        <v>19.63</v>
+        <v>19.75</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I12" t="n">
         <v>10</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L12" t="n">
         <v>10</v>
@@ -1297,43 +1297,43 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O12" t="n">
         <v>10</v>
       </c>
       <c r="P12" t="n">
-        <v>9.018442034869794e-07</v>
+        <v>9.01324197685757e-07</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.265707773873653e-10</v>
+        <v>1.018606501189268e-10</v>
       </c>
       <c r="R12" t="n">
-        <v>2.076942807949651</v>
+        <v>2.044082507117485</v>
       </c>
       <c r="S12" t="n">
-        <v>1.295949847584315e-06</v>
+        <v>1.01296079907632e-06</v>
       </c>
       <c r="T12" t="n">
-        <v>1.008415472304446e-06</v>
+        <v>1.007276476029766e-06</v>
       </c>
       <c r="U12" t="n">
-        <v>2.318831574483258</v>
+        <v>2.318718925305132</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0001437044329722905</v>
+        <v>0.0001123893337777905</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0001118205109623696</v>
+        <v>0.0001117586506342416</v>
       </c>
       <c r="X12" t="n">
-        <v>2.318831555610354</v>
+        <v>2.318718927301433</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.984179824947713e-11</v>
+        <v>1.983033611381847e-11</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.435065730817308e-07</v>
+        <v>2.433659057858607e-07</v>
       </c>
     </row>
     <row r="13">
@@ -1351,19 +1351,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1001834</v>
+        <v>1001258</v>
       </c>
       <c r="E13" t="n">
-        <v>1654</v>
+        <v>1327</v>
       </c>
       <c r="F13" t="n">
         <v>1591.5</v>
       </c>
       <c r="G13" t="n">
-        <v>19.64</v>
+        <v>19.75</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I13" t="n">
         <v>10</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L13" t="n">
         <v>10</v>
@@ -1381,43 +1381,43 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O13" t="n">
         <v>10</v>
       </c>
       <c r="P13" t="n">
-        <v>1.001879765464792e-06</v>
+        <v>1.001299204144453e-06</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.393816095716807e-10</v>
+        <v>1.13141500570987e-10</v>
       </c>
       <c r="R13" t="n">
-        <v>2.075715608693854</v>
+        <v>2.04414605075134</v>
       </c>
       <c r="S13" t="n">
-        <v>1.654935955055587e-06</v>
+        <v>1.326948647950915e-06</v>
       </c>
       <c r="T13" t="n">
-        <v>1.239644262393635e-06</v>
+        <v>1.238228129583454e-06</v>
       </c>
       <c r="U13" t="n">
-        <v>2.338199090463456</v>
+        <v>2.338098090449864</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0001651882205131503</v>
+        <v>0.0001325268068316044</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0001237356828139673</v>
+        <v>0.0001236659914196927</v>
       </c>
       <c r="X13" t="n">
-        <v>2.338199069029893</v>
+        <v>2.338098092840008</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.204258061298901e-11</v>
+        <v>2.202978625590978e-11</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.705153359417422e-07</v>
+        <v>2.703583191635143e-07</v>
       </c>
     </row>
     <row r="14">
@@ -1444,10 +1444,10 @@
         <v>1591.5</v>
       </c>
       <c r="G14" t="n">
-        <v>19.64</v>
+        <v>19.84</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I14" t="n">
         <v>10</v>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L14" t="n">
         <v>10</v>
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O14" t="n">
         <v>10</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.227809872887403e-13</v>
+        <v>3.227792122584998e-13</v>
       </c>
       <c r="R14" t="n">
         <v>2.08946806431709</v>
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -1519,10 +1519,10 @@
         <v>1591.5</v>
       </c>
       <c r="G15" t="n">
-        <v>19.61</v>
+        <v>19.71</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I15" t="n">
         <v>10</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L15" t="n">
         <v>10</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O15" t="n">
         <v>10</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>3.034611261558653e-15</v>
+        <v>3.059000949493637e-15</v>
       </c>
       <c r="U15" t="n">
         <v>2.446911848791681</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.221372342971866e-15</v>
+        <v>1.225766713915001e-15</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.614678386110042e-11</v>
+        <v>1.620071310221478e-11</v>
       </c>
     </row>
     <row r="16">
@@ -1594,19 +1594,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>100701</v>
+        <v>100618</v>
       </c>
       <c r="E16" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F16" t="n">
         <v>1591.5</v>
       </c>
       <c r="G16" t="n">
-        <v>19.58</v>
+        <v>19.72</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I16" t="n">
         <v>10</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L16" t="n">
         <v>10</v>
@@ -1624,43 +1624,43 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O16" t="n">
         <v>10</v>
       </c>
       <c r="P16" t="n">
-        <v>1.002125788981143e-08</v>
+        <v>1.001270201531691e-08</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.528412315412993e-12</v>
+        <v>1.221643780651995e-12</v>
       </c>
       <c r="R16" t="n">
-        <v>2.063236402259923</v>
+        <v>2.025941168421909</v>
       </c>
       <c r="S16" t="n">
-        <v>4.099841338808405e-09</v>
+        <v>3.699856817949047e-09</v>
       </c>
       <c r="T16" t="n">
-        <v>5.582083054608432e-09</v>
+        <v>5.580171148729188e-09</v>
       </c>
       <c r="U16" t="n">
-        <v>2.018804265825753</v>
+        <v>2.01876106333868</v>
       </c>
       <c r="V16" t="n">
-        <v>4.091271497253553e-05</v>
+        <v>3.695277985254989e-05</v>
       </c>
       <c r="W16" t="n">
-        <v>5.570414922828263e-05</v>
+        <v>5.573265294187654e-05</v>
       </c>
       <c r="X16" t="n">
-        <v>2.018804265151718</v>
+        <v>2.018761063597041</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.216890459188234e-13</v>
+        <v>2.215052110508871e-13</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.721802378268275e-09</v>
+        <v>2.719546293143361e-09</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>200687</v>
+        <v>200526</v>
       </c>
       <c r="E17" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F17" t="n">
         <v>1591.5</v>
       </c>
       <c r="G17" t="n">
-        <v>19.6</v>
+        <v>19.73</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I17" t="n">
         <v>10</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L17" t="n">
         <v>10</v>
@@ -1708,43 +1708,43 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O17" t="n">
         <v>10</v>
       </c>
       <c r="P17" t="n">
-        <v>2.002081370521302e-08</v>
+        <v>2.000440213863422e-08</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.916355165657519e-12</v>
+        <v>2.319447412891078e-12</v>
       </c>
       <c r="R17" t="n">
-        <v>2.075387835203923</v>
+        <v>2.03955272381052</v>
       </c>
       <c r="S17" t="n">
-        <v>5.899771682675508e-09</v>
+        <v>5.699779422245829e-09</v>
       </c>
       <c r="T17" t="n">
-        <v>8.434212292009741e-09</v>
+        <v>8.428852857049973e-09</v>
       </c>
       <c r="U17" t="n">
-        <v>2.090810620685419</v>
+        <v>2.090697294541481</v>
       </c>
       <c r="V17" t="n">
-        <v>2.946910656322283e-05</v>
+        <v>2.849351064859172e-05</v>
       </c>
       <c r="W17" t="n">
-        <v>4.21285288313639e-05</v>
+        <v>4.213629875887206e-05</v>
       </c>
       <c r="X17" t="n">
-        <v>2.090810619417673</v>
+        <v>2.090697295263987</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.416792738576584e-13</v>
+        <v>4.413226137638678e-13</v>
       </c>
       <c r="Z17" t="n">
-        <v>5.421598594573133e-09</v>
+        <v>5.417221538461393e-09</v>
       </c>
     </row>
     <row r="18">
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>300887</v>
+        <v>300641</v>
       </c>
       <c r="E18" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F18" t="n">
         <v>1591.5</v>
       </c>
       <c r="G18" t="n">
-        <v>19.6</v>
+        <v>19.71</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I18" t="n">
         <v>10</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L18" t="n">
         <v>10</v>
@@ -1792,43 +1792,43 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O18" t="n">
         <v>10</v>
       </c>
       <c r="P18" t="n">
-        <v>3.004177156634598e-08</v>
+        <v>3.001680412692257e-08</v>
       </c>
       <c r="Q18" t="n">
-        <v>4.350940944880865e-12</v>
+        <v>3.480612109303244e-12</v>
       </c>
       <c r="R18" t="n">
-        <v>2.078632254160791</v>
+        <v>2.044424670497273</v>
       </c>
       <c r="S18" t="n">
-        <v>6.199760073320024e-09</v>
+        <v>5.999767812890346e-09</v>
       </c>
       <c r="T18" t="n">
-        <v>1.189119605303764e-08</v>
+        <v>1.188226669479665e-08</v>
       </c>
       <c r="U18" t="n">
-        <v>2.143306722146212</v>
+        <v>2.143213870068527</v>
       </c>
       <c r="V18" t="n">
-        <v>2.063777304212323e-05</v>
+        <v>1.998865081129485e-05</v>
       </c>
       <c r="W18" t="n">
-        <v>3.958343593158992e-05</v>
+        <v>3.958661188326234e-05</v>
       </c>
       <c r="X18" t="n">
-        <v>2.143306721069309</v>
+        <v>2.143213870627058</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.621403468025834e-13</v>
+        <v>6.615954575062115e-13</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.127173183753089e-09</v>
+        <v>8.120486113720781e-09</v>
       </c>
     </row>
     <row r="19">
@@ -1846,19 +1846,19 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>400992</v>
+        <v>400667</v>
       </c>
       <c r="E19" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F19" t="n">
         <v>1591.5</v>
       </c>
       <c r="G19" t="n">
-        <v>19.6</v>
+        <v>19.72</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I19" t="n">
         <v>10</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L19" t="n">
         <v>10</v>
@@ -1876,43 +1876,43 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O19" t="n">
         <v>10</v>
       </c>
       <c r="P19" t="n">
-        <v>4.005322851932716e-08</v>
+        <v>4.002030531336346e-08</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.788683379037579e-12</v>
+        <v>4.603246320297734e-12</v>
       </c>
       <c r="R19" t="n">
-        <v>2.07979686956048</v>
+        <v>2.044911948352083</v>
       </c>
       <c r="S19" t="n">
-        <v>6.099763943105184e-09</v>
+        <v>5.399791031601312e-09</v>
       </c>
       <c r="T19" t="n">
-        <v>1.553948887798402e-08</v>
+        <v>1.552732073559236e-08</v>
       </c>
       <c r="U19" t="n">
-        <v>2.169865405511779</v>
+        <v>2.169805979237206</v>
       </c>
       <c r="V19" t="n">
-        <v>1.522961724477414e-05</v>
+        <v>1.349304734982536e-05</v>
       </c>
       <c r="W19" t="n">
-        <v>3.879829943591956e-05</v>
+        <v>3.879981145022555e-05</v>
       </c>
       <c r="X19" t="n">
-        <v>2.169865404783406</v>
+        <v>2.169805979563664</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.823923997681695e-13</v>
+        <v>8.816724836079112e-13</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.083018260740438e-08</v>
+        <v>1.082134754712133e-08</v>
       </c>
     </row>
     <row r="20">
@@ -1930,19 +1930,19 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>501146</v>
+        <v>500749</v>
       </c>
       <c r="E20" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F20" t="n">
         <v>1591.5</v>
       </c>
       <c r="G20" t="n">
-        <v>19.62</v>
+        <v>19.71</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I20" t="n">
         <v>10</v>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L20" t="n">
         <v>10</v>
@@ -1960,43 +1960,43 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O20" t="n">
         <v>10</v>
       </c>
       <c r="P20" t="n">
-        <v>5.006958594072346e-08</v>
+        <v>5.002940700433759e-08</v>
       </c>
       <c r="Q20" t="n">
-        <v>7.101397235137881e-12</v>
+        <v>5.772973512105515e-12</v>
       </c>
       <c r="R20" t="n">
-        <v>2.077627856810232</v>
+        <v>2.046255963912016</v>
       </c>
       <c r="S20" t="n">
-        <v>5.399791031601312e-09</v>
+        <v>4.699818120097437e-09</v>
       </c>
       <c r="T20" t="n">
-        <v>1.927747455737946e-08</v>
+        <v>1.926235781496349e-08</v>
       </c>
       <c r="U20" t="n">
-        <v>2.182354549142341</v>
+        <v>2.182322253421901</v>
       </c>
       <c r="V20" t="n">
-        <v>1.078490793167278e-05</v>
+        <v>9.394402961597919e-06</v>
       </c>
       <c r="W20" t="n">
-        <v>3.850256187821159e-05</v>
+        <v>3.850326686657445e-05</v>
       </c>
       <c r="X20" t="n">
-        <v>2.182354548771907</v>
+        <v>2.182322253597196</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.102752263038888e-12</v>
+        <v>1.101872720809342e-12</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.353451511643361e-08</v>
+        <v>1.352372106978137e-08</v>
       </c>
     </row>
     <row r="21">
@@ -2014,19 +2014,19 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>601345</v>
+        <v>600867</v>
       </c>
       <c r="E21" t="n">
-        <v>39</v>
+        <v>-61</v>
       </c>
       <c r="F21" t="n">
         <v>1591.5</v>
       </c>
       <c r="G21" t="n">
-        <v>19.6</v>
+        <v>19.72</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I21" t="n">
         <v>10</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L21" t="n">
         <v>10</v>
@@ -2044,43 +2044,43 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O21" t="n">
         <v>10</v>
       </c>
       <c r="P21" t="n">
-        <v>6.009044379229693e-08</v>
+        <v>6.00421090196545e-08</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.670728016121771e-12</v>
+        <v>6.889131507906195e-12</v>
       </c>
       <c r="R21" t="n">
-        <v>2.080632808665483</v>
+        <v>2.04581779705232</v>
       </c>
       <c r="S21" t="n">
-        <v>2.899887776230334e-09</v>
+        <v>-7.099725245253576e-09</v>
       </c>
       <c r="T21" t="n">
-        <v>2.307435644539776e-08</v>
+        <v>2.305592528798697e-08</v>
       </c>
       <c r="U21" t="n">
-        <v>2.187332519132918</v>
+        <v>2.187320400823865</v>
       </c>
       <c r="V21" t="n">
-        <v>4.826021679614973e-06</v>
+        <v>-1.182494398325947e-05</v>
       </c>
       <c r="W21" t="n">
-        <v>3.840057031476693e-05</v>
+        <v>3.840078532768236e-05</v>
       </c>
       <c r="X21" t="n">
-        <v>2.187332519051951</v>
+        <v>2.187320400975936</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.323211135773504e-12</v>
+        <v>1.322152165146314e-12</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.624006270387116e-08</v>
+        <v>1.622706664982251e-08</v>
       </c>
     </row>
     <row r="22">
@@ -2098,19 +2098,19 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>701328</v>
+        <v>700768</v>
       </c>
       <c r="E22" t="n">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F22" t="n">
         <v>1591.5</v>
       </c>
       <c r="G22" t="n">
-        <v>19.61</v>
+        <v>19.72</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I22" t="n">
         <v>10</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L22" t="n">
         <v>10</v>
@@ -2128,43 +2128,43 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O22" t="n">
         <v>10</v>
       </c>
       <c r="P22" t="n">
-        <v>7.008969957902004e-08</v>
+        <v>7.003310907990515e-08</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.001978795201997e-11</v>
+        <v>8.031080751318229e-12</v>
       </c>
       <c r="R22" t="n">
-        <v>2.079444516688506</v>
+        <v>2.046010485846127</v>
       </c>
       <c r="S22" t="n">
-        <v>1.049959367255811e-08</v>
+        <v>8.899655589120679e-09</v>
       </c>
       <c r="T22" t="n">
-        <v>2.691191573374202e-08</v>
+        <v>2.689006530193827e-08</v>
       </c>
       <c r="U22" t="n">
-        <v>2.188023925483311</v>
+        <v>2.188028251478078</v>
       </c>
       <c r="V22" t="n">
-        <v>1.498068881153331e-05</v>
+        <v>1.270817777956924e-05</v>
       </c>
       <c r="W22" t="n">
-        <v>3.839758449323019e-05</v>
+        <v>3.839741065715138e-05</v>
       </c>
       <c r="X22" t="n">
-        <v>2.1880239247044</v>
+        <v>2.188028251772807</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.543194763081413e-12</v>
+        <v>1.541954166471828e-12</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.893977791494879e-08</v>
+        <v>1.892455288398311e-08</v>
       </c>
     </row>
     <row r="23">
@@ -2182,19 +2182,19 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>801525</v>
+        <v>800879</v>
       </c>
       <c r="E23" t="n">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="F23" t="n">
         <v>1591.5</v>
       </c>
       <c r="G23" t="n">
-        <v>19.62</v>
+        <v>19.71</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I23" t="n">
         <v>10</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L23" t="n">
         <v>10</v>
@@ -2212,43 +2212,43 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O23" t="n">
         <v>10</v>
       </c>
       <c r="P23" t="n">
-        <v>8.011035741147454e-08</v>
+        <v>8.004511103215543e-08</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.134834828706338e-11</v>
+        <v>9.220058274723255e-12</v>
       </c>
       <c r="R23" t="n">
-        <v>2.07821852029934</v>
+        <v>2.046893696309915</v>
       </c>
       <c r="S23" t="n">
-        <v>1.949924539189363e-08</v>
+        <v>1.78993073084562e-08</v>
       </c>
       <c r="T23" t="n">
-        <v>3.080683222588758e-08</v>
+        <v>3.078131006112214e-08</v>
       </c>
       <c r="U23" t="n">
-        <v>2.186111665684033</v>
+        <v>2.18613001061864</v>
       </c>
       <c r="V23" t="n">
-        <v>2.43412358344314e-05</v>
+        <v>2.236221927620872e-05</v>
       </c>
       <c r="W23" t="n">
-        <v>3.845668664034767e-05</v>
+        <v>3.845614768092136e-05</v>
       </c>
       <c r="X23" t="n">
-        <v>2.18611166372271</v>
+        <v>2.18613001141924</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.763649235395412e-12</v>
+        <v>1.762218209421334e-12</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.164527149890153e-08</v>
+        <v>2.162770945286682e-08</v>
       </c>
     </row>
     <row r="24">
@@ -2266,19 +2266,19 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>901626</v>
+        <v>900901</v>
       </c>
       <c r="E24" t="n">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="F24" t="n">
         <v>1591.5</v>
       </c>
       <c r="G24" t="n">
-        <v>19.64</v>
+        <v>19.72</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I24" t="n">
         <v>10</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L24" t="n">
         <v>10</v>
@@ -2296,43 +2296,43 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O24" t="n">
         <v>10</v>
       </c>
       <c r="P24" t="n">
-        <v>9.012141432621776e-08</v>
+        <v>9.004821218255822e-08</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.254326648482573e-11</v>
+        <v>1.031990179735e-11</v>
       </c>
       <c r="R24" t="n">
-        <v>2.075693504147851</v>
+        <v>2.046221129617143</v>
       </c>
       <c r="S24" t="n">
-        <v>3.419867653347497e-08</v>
+        <v>3.189876553853368e-08</v>
       </c>
       <c r="T24" t="n">
-        <v>3.475113938656821e-08</v>
+        <v>3.4722097896049e-08</v>
       </c>
       <c r="U24" t="n">
-        <v>2.182554581508799</v>
+        <v>2.182584722403327</v>
       </c>
       <c r="V24" t="n">
-        <v>3.794851531907645e-05</v>
+        <v>3.542519670246477e-05</v>
       </c>
       <c r="W24" t="n">
-        <v>3.85615551270524e-05</v>
+        <v>3.856065046171675e-05</v>
       </c>
       <c r="X24" t="n">
-        <v>2.182554577198905</v>
+        <v>2.182584724341678</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.983892487519762e-12</v>
+        <v>1.982286434730195e-12</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.434817291558319e-08</v>
+        <v>2.432846287989168e-08</v>
       </c>
     </row>
     <row r="25">
@@ -2350,19 +2350,19 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1001825</v>
+        <v>1001011</v>
       </c>
       <c r="E25" t="n">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="F25" t="n">
         <v>1591.5</v>
       </c>
       <c r="G25" t="n">
-        <v>19.63</v>
+        <v>19.71</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I25" t="n">
         <v>10</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L25" t="n">
         <v>10</v>
@@ -2380,43 +2380,43 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O25" t="n">
         <v>10</v>
       </c>
       <c r="P25" t="n">
-        <v>1.001422721777912e-07</v>
+        <v>1.00060114125799e-07</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.405767387026384e-11</v>
+        <v>1.15204193512222e-11</v>
       </c>
       <c r="R25" t="n">
-        <v>2.077037929459442</v>
+        <v>2.047040091352357</v>
       </c>
       <c r="S25" t="n">
-        <v>5.339793353472409e-08</v>
+        <v>5.039804962827891e-08</v>
       </c>
       <c r="T25" t="n">
-        <v>3.875855772066898e-08</v>
+        <v>3.872544992535544e-08</v>
       </c>
       <c r="U25" t="n">
-        <v>2.177945630168278</v>
+        <v>2.177986221380384</v>
       </c>
       <c r="V25" t="n">
-        <v>5.332372721062197e-05</v>
+        <v>5.036933587185341e-05</v>
       </c>
       <c r="W25" t="n">
-        <v>3.870469582215218e-05</v>
+        <v>3.870338652498023e-05</v>
       </c>
       <c r="X25" t="n">
-        <v>2.177945621643099</v>
+        <v>2.177986225003039</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.204351360254379e-12</v>
+        <v>2.202548277481493e-12</v>
       </c>
       <c r="Z25" t="n">
-        <v>2.705372050302074e-08</v>
+        <v>2.703159244718147e-08</v>
       </c>
     </row>
     <row r="26">
@@ -2443,10 +2443,10 @@
         <v>1591.5</v>
       </c>
       <c r="G26" t="n">
-        <v>19.63</v>
+        <v>19.84</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I26" t="n">
         <v>10</v>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L26" t="n">
         <v>10</v>
@@ -2464,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O26" t="n">
         <v>10</v>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.227809872887403e-14</v>
+        <v>3.227792122584997e-14</v>
       </c>
       <c r="R26" t="n">
         <v>2.08946806431709</v>
@@ -2509,19 +2509,19 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4978</v>
+        <v>5001</v>
       </c>
       <c r="E27" t="n">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="F27" t="n">
         <v>1591.5</v>
       </c>
       <c r="G27" t="n">
-        <v>19.61</v>
+        <v>19.75</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I27" t="n">
         <v>10</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L27" t="n">
         <v>10</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O27" t="n">
         <v>10</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>3.032174312239884e-15</v>
+        <v>3.060224672233475e-15</v>
       </c>
       <c r="U27" t="n">
         <v>2.446911848791681</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.220932300910099e-15</v>
+        <v>1.225986733735949e-15</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.614138351261902e-11</v>
+        <v>1.620341326160674e-11</v>
       </c>
     </row>
     <row r="28">
@@ -2593,19 +2593,19 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>104565</v>
+        <v>104502</v>
       </c>
       <c r="E28" t="n">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="F28" t="n">
         <v>1591.5</v>
       </c>
       <c r="G28" t="n">
-        <v>19.64</v>
+        <v>19.75</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I28" t="n">
         <v>10</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L28" t="n">
         <v>10</v>
@@ -2623,43 +2623,43 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O28" t="n">
         <v>10</v>
       </c>
       <c r="P28" t="n">
-        <v>9.959652001164149e-10</v>
+        <v>9.95099645644188e-10</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.489265104203523e-13</v>
+        <v>1.236279204668666e-13</v>
       </c>
       <c r="R28" t="n">
-        <v>2.05823505744817</v>
+        <v>2.026370659601175</v>
       </c>
       <c r="S28" t="n">
-        <v>2.39990712515614e-10</v>
+        <v>3.999845208593563e-10</v>
       </c>
       <c r="T28" t="n">
-        <v>5.567545636727394e-10</v>
+        <v>5.56562341578668e-10</v>
       </c>
       <c r="U28" t="n">
-        <v>2.018534308090873</v>
+        <v>2.018491068779072</v>
       </c>
       <c r="V28" t="n">
-        <v>2.409704339444625e-05</v>
+        <v>4.019667234937569e-05</v>
       </c>
       <c r="W28" t="n">
-        <v>5.590274201168252e-05</v>
+        <v>5.593204937748056e-05</v>
       </c>
       <c r="X28" t="n">
-        <v>2.018534308058856</v>
+        <v>2.018491070446947</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.313216670347123e-14</v>
+        <v>2.311817893790808e-14</v>
       </c>
       <c r="Z28" t="n">
-        <v>2.850436356210662e-10</v>
+        <v>2.848719729208829e-10</v>
       </c>
     </row>
     <row r="29">
@@ -2677,19 +2677,19 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>204874</v>
+        <v>204731</v>
       </c>
       <c r="E29" t="n">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="F29" t="n">
         <v>1591.5</v>
       </c>
       <c r="G29" t="n">
-        <v>19.63</v>
+        <v>19.76</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I29" t="n">
         <v>10</v>
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L29" t="n">
         <v>10</v>
@@ -2707,43 +2707,43 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O29" t="n">
         <v>10</v>
       </c>
       <c r="P29" t="n">
-        <v>1.999151090428177e-09</v>
+        <v>1.997479947181573e-09</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.881311748159577e-13</v>
+        <v>2.323383587288275e-13</v>
       </c>
       <c r="R29" t="n">
-        <v>2.073043368006687</v>
+        <v>2.038734489065228</v>
       </c>
       <c r="S29" t="n">
-        <v>1.999922604296783e-10</v>
+        <v>3.399868427304527e-10</v>
       </c>
       <c r="T29" t="n">
-        <v>8.417037832767569e-10</v>
+        <v>8.411601784484619e-10</v>
       </c>
       <c r="U29" t="n">
-        <v>2.091290748617511</v>
+        <v>2.091173099878325</v>
       </c>
       <c r="V29" t="n">
-        <v>1.000416992053668e-05</v>
+        <v>1.70213174341358e-05</v>
       </c>
       <c r="W29" t="n">
-        <v>4.210436770486709e-05</v>
+        <v>4.211237785149411e-05</v>
       </c>
       <c r="X29" t="n">
-        <v>2.091290748636279</v>
+        <v>2.091173101404774</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.520225629032999e-14</v>
+        <v>4.517054557173056e-14</v>
       </c>
       <c r="Z29" t="n">
-        <v>5.558954135312978e-10</v>
+        <v>5.555062486175049e-10</v>
       </c>
     </row>
     <row r="30">
@@ -2761,19 +2761,19 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>304422</v>
+        <v>304202</v>
       </c>
       <c r="E30" t="n">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="F30" t="n">
         <v>1591.5</v>
       </c>
       <c r="G30" t="n">
-        <v>19.63</v>
+        <v>19.76</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I30" t="n">
         <v>10</v>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L30" t="n">
         <v>10</v>
@@ -2791,43 +2791,43 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O30" t="n">
         <v>10</v>
       </c>
       <c r="P30" t="n">
-        <v>2.994726253262572e-09</v>
+        <v>2.992279565797195e-09</v>
       </c>
       <c r="Q30" t="n">
-        <v>4.26857426704446e-13</v>
+        <v>3.429892117930919e-13</v>
       </c>
       <c r="R30" t="n">
-        <v>2.075730707611947</v>
+        <v>2.041685567588447</v>
       </c>
       <c r="S30" t="n">
-        <v>2.499903255370981e-10</v>
+        <v>3.699856817949042e-10</v>
       </c>
       <c r="T30" t="n">
-        <v>1.183296375026522e-09</v>
+        <v>1.182427365791617e-09</v>
       </c>
       <c r="U30" t="n">
-        <v>2.145566648866949</v>
+        <v>2.145468789117811</v>
       </c>
       <c r="V30" t="n">
-        <v>8.347944650901337e-06</v>
+        <v>1.236506032158176e-05</v>
       </c>
       <c r="W30" t="n">
-        <v>3.951389968363543e-05</v>
+        <v>3.951716623412619e-05</v>
       </c>
       <c r="X30" t="n">
-        <v>2.145566648849042</v>
+        <v>2.145468790392974</v>
       </c>
       <c r="Y30" t="n">
-        <v>6.710490987268667e-14</v>
+        <v>6.705613718127423e-14</v>
       </c>
       <c r="Z30" t="n">
-        <v>8.246923588443577e-10</v>
+        <v>8.240938034950223e-10</v>
       </c>
     </row>
     <row r="31">
@@ -2845,19 +2845,19 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>404764</v>
+        <v>404451</v>
       </c>
       <c r="E31" t="n">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="F31" t="n">
         <v>1591.5</v>
       </c>
       <c r="G31" t="n">
-        <v>19.63</v>
+        <v>19.75</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I31" t="n">
         <v>10</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L31" t="n">
         <v>10</v>
@@ -2875,43 +2875,43 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O31" t="n">
         <v>10</v>
       </c>
       <c r="P31" t="n">
-        <v>3.998242175120659e-09</v>
+        <v>3.994859885353624e-09</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.671529440778883e-13</v>
+        <v>4.570488899802637e-13</v>
       </c>
       <c r="R31" t="n">
-        <v>2.076629323712984</v>
+        <v>2.043394603514574</v>
       </c>
       <c r="S31" t="n">
-        <v>2.999883906445201e-11</v>
+        <v>2.299910994941299e-10</v>
       </c>
       <c r="T31" t="n">
-        <v>1.545769879586049e-09</v>
+        <v>1.544533375906858e-09</v>
       </c>
       <c r="U31" t="n">
-        <v>2.17551841455998</v>
+        <v>2.175444650361884</v>
       </c>
       <c r="V31" t="n">
-        <v>7.503240047559005e-07</v>
+        <v>5.757354437039075e-06</v>
       </c>
       <c r="W31" t="n">
-        <v>3.866243770244316e-05</v>
+        <v>3.866421831980958e-05</v>
       </c>
       <c r="X31" t="n">
-        <v>2.175518414571202</v>
+        <v>2.175444650888031</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.91822601535646e-14</v>
+        <v>8.911290421151568e-14</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.095633242504532e-09</v>
+        <v>1.094782082379483e-09</v>
       </c>
     </row>
     <row r="32">
@@ -2929,19 +2929,19 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>505170</v>
+        <v>504786</v>
       </c>
       <c r="E32" t="n">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="F32" t="n">
         <v>1591.5</v>
       </c>
       <c r="G32" t="n">
-        <v>19.63</v>
+        <v>19.75</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I32" t="n">
         <v>10</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L32" t="n">
         <v>10</v>
@@ -2959,43 +2959,43 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O32" t="n">
         <v>10</v>
       </c>
       <c r="P32" t="n">
-        <v>5.002398158159496e-09</v>
+        <v>4.998300282391941e-09</v>
       </c>
       <c r="Q32" t="n">
-        <v>7.077254757987174e-13</v>
+        <v>5.699884414197902e-13</v>
       </c>
       <c r="R32" t="n">
-        <v>2.077008255777588</v>
+        <v>2.043862491768486</v>
       </c>
       <c r="S32" t="n">
-        <v>-2.399907125156136e-10</v>
+        <v>-6.999729115038747e-11</v>
       </c>
       <c r="T32" t="n">
-        <v>1.91540518594449e-09</v>
+        <v>1.913888758540126e-09</v>
       </c>
       <c r="U32" t="n">
-        <v>2.192274737671818</v>
+        <v>2.192222972460795</v>
       </c>
       <c r="V32" t="n">
-        <v>-4.797662218753429e-06</v>
+        <v>-1.400465383517246e-06</v>
       </c>
       <c r="W32" t="n">
-        <v>3.829092800643481e-05</v>
+        <v>3.829198116572226e-05</v>
       </c>
       <c r="X32" t="n">
-        <v>2.192274737517684</v>
+        <v>2.192222972359978</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.11273691780419e-13</v>
+        <v>1.111885929463587e-13</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.366746937316111e-09</v>
+        <v>1.365702574971653e-09</v>
       </c>
     </row>
     <row r="33">
@@ -3013,19 +3013,19 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>604666</v>
+        <v>604205</v>
       </c>
       <c r="E33" t="n">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="F33" t="n">
         <v>1591.5</v>
       </c>
       <c r="G33" t="n">
-        <v>19.63</v>
+        <v>19.75</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I33" t="n">
         <v>10</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L33" t="n">
         <v>10</v>
@@ -3043,43 +3043,43 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O33" t="n">
         <v>10</v>
       </c>
       <c r="P33" t="n">
-        <v>5.997453271284531e-09</v>
+        <v>5.992579854158049e-09</v>
       </c>
       <c r="Q33" t="n">
-        <v>8.471168677634278e-13</v>
+        <v>6.820172132600838e-13</v>
       </c>
       <c r="R33" t="n">
-        <v>2.077190648260359</v>
+        <v>2.044101924619752</v>
       </c>
       <c r="S33" t="n">
-        <v>-3.699856817949042e-10</v>
+        <v>-5.599783292030992e-10</v>
       </c>
       <c r="T33" t="n">
-        <v>2.284875696874601e-09</v>
+        <v>2.283061244996019e-09</v>
       </c>
       <c r="U33" t="n">
-        <v>2.202207055986749</v>
+        <v>2.202168836547533</v>
       </c>
       <c r="V33" t="n">
-        <v>-6.169238117664272e-06</v>
+        <v>-9.344818682133845e-06</v>
       </c>
       <c r="W33" t="n">
-        <v>3.809861553813532e-05</v>
+        <v>3.809931968546499e-05</v>
       </c>
       <c r="X33" t="n">
-        <v>2.202207055761288</v>
+        <v>2.202168836082204</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.331649042691698e-13</v>
+        <v>1.33062743525213e-13</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.635403473568655e-09</v>
+        <v>1.634149721560788e-09</v>
       </c>
     </row>
     <row r="34">
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>704988</v>
+        <v>704439</v>
       </c>
       <c r="E34" t="n">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="F34" t="n">
         <v>1591.5</v>
       </c>
       <c r="G34" t="n">
-        <v>19.62</v>
+        <v>19.76</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I34" t="n">
         <v>10</v>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L34" t="n">
         <v>10</v>
@@ -3127,43 +3127,43 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O34" t="n">
         <v>10</v>
       </c>
       <c r="P34" t="n">
-        <v>7.000769174023631e-09</v>
+        <v>6.995010160200195e-09</v>
       </c>
       <c r="Q34" t="n">
-        <v>9.964668129773784e-13</v>
+        <v>7.916422843539546e-13</v>
       </c>
       <c r="R34" t="n">
-        <v>2.078616642574965</v>
+        <v>2.04358459159651</v>
       </c>
       <c r="S34" t="n">
-        <v>-1.999922604296752e-11</v>
+        <v>1.399945823007743e-10</v>
       </c>
       <c r="T34" t="n">
-        <v>2.659154266692329e-09</v>
+        <v>2.657002476058844e-09</v>
       </c>
       <c r="U34" t="n">
-        <v>2.208575662279455</v>
+        <v>2.208546159032326</v>
       </c>
       <c r="V34" t="n">
-        <v>-2.856807117663417e-07</v>
+        <v>2.001411395152003e-06</v>
       </c>
       <c r="W34" t="n">
-        <v>3.798492411528358e-05</v>
+        <v>3.798543447082138e-05</v>
       </c>
       <c r="X34" t="n">
-        <v>2.208575662275646</v>
+        <v>2.208546159157009</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.5523785412943e-13</v>
+        <v>1.551162102581402e-13</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.906290353744016e-09</v>
+        <v>1.904797498054371e-09</v>
       </c>
     </row>
     <row r="35">
@@ -3181,7 +3181,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>804469</v>
+        <v>803838</v>
       </c>
       <c r="E35" t="n">
         <v>238</v>
@@ -3190,10 +3190,10 @@
         <v>1591.5</v>
       </c>
       <c r="G35" t="n">
-        <v>19.61</v>
+        <v>19.76</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I35" t="n">
         <v>10</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L35" t="n">
         <v>10</v>
@@ -3211,43 +3211,43 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O35" t="n">
         <v>10</v>
       </c>
       <c r="P35" t="n">
-        <v>7.995674272809428e-09</v>
+        <v>7.989089713947259e-09</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.147332099520523e-12</v>
+        <v>9.03281954373239e-13</v>
       </c>
       <c r="R35" t="n">
-        <v>2.080018985616515</v>
+        <v>2.043667734322129</v>
       </c>
       <c r="S35" t="n">
-        <v>7.799698156757452e-10</v>
+        <v>1.149955497470649e-09</v>
       </c>
       <c r="T35" t="n">
-        <v>3.031342587975423e-09</v>
+        <v>3.028876850559554e-09</v>
       </c>
       <c r="U35" t="n">
-        <v>2.212793915395569</v>
+        <v>2.212770818214356</v>
       </c>
       <c r="V35" t="n">
-        <v>9.755200304567325e-06</v>
+        <v>1.439452122194677e-05</v>
       </c>
       <c r="W35" t="n">
-        <v>3.791345966182884e-05</v>
+        <v>3.79138429159893e-05</v>
       </c>
       <c r="X35" t="n">
-        <v>2.212793915098717</v>
+        <v>2.212770819362223</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.771257663027175e-13</v>
+        <v>1.769859604405756e-13</v>
       </c>
       <c r="Z35" t="n">
-        <v>2.174906387382949e-09</v>
+        <v>2.173190641455667e-09</v>
       </c>
     </row>
     <row r="36">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>904780</v>
+        <v>904057</v>
       </c>
       <c r="E36" t="n">
-        <v>358</v>
+        <v>329</v>
       </c>
       <c r="F36" t="n">
         <v>1591.5</v>
       </c>
       <c r="G36" t="n">
-        <v>19.63</v>
+        <v>19.78</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I36" t="n">
         <v>10</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L36" t="n">
         <v>10</v>
@@ -3295,43 +3295,43 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O36" t="n">
         <v>10</v>
       </c>
       <c r="P36" t="n">
-        <v>8.998880165033089e-09</v>
+        <v>8.99137000647512e-09</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.26781908575368e-12</v>
+        <v>1.007664110550956e-12</v>
       </c>
       <c r="R36" t="n">
-        <v>2.077372200038178</v>
+        <v>2.042497822483405</v>
       </c>
       <c r="S36" t="n">
-        <v>1.979923378253815e-09</v>
+        <v>2.059920282425685e-09</v>
       </c>
       <c r="T36" t="n">
-        <v>3.4073324559775e-09</v>
+        <v>3.4045157787099e-09</v>
       </c>
       <c r="U36" t="n">
-        <v>2.215748767965031</v>
+        <v>2.2157301605775</v>
       </c>
       <c r="V36" t="n">
-        <v>2.200256962010801e-05</v>
+        <v>2.291068280673445e-05</v>
       </c>
       <c r="W36" t="n">
-        <v>3.786513685105163e-05</v>
+        <v>3.786543671255774e-05</v>
       </c>
       <c r="X36" t="n">
-        <v>2.215748766240941</v>
+        <v>2.215730162721475</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.99196295931638e-13</v>
+        <v>1.990361268761886e-13</v>
       </c>
       <c r="Z36" t="n">
-        <v>2.445763565641661e-09</v>
+        <v>2.443797915558369e-09</v>
       </c>
     </row>
     <row r="37">
@@ -3349,19 +3349,19 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1004265</v>
+        <v>1003463</v>
       </c>
       <c r="E37" t="n">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="F37" t="n">
         <v>1591.5</v>
       </c>
       <c r="G37" t="n">
-        <v>19.62</v>
+        <v>19.86</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I37" t="n">
         <v>10</v>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L37" t="n">
         <v>10</v>
@@ -3379,43 +3379,43 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O37" t="n">
         <v>10</v>
       </c>
       <c r="P37" t="n">
-        <v>9.993825267642682e-09</v>
+        <v>9.985519566528851e-09</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.419775984827502e-12</v>
+        <v>1.089610949156437e-12</v>
       </c>
       <c r="R37" t="n">
-        <v>2.078712905849261</v>
+        <v>2.038755549119657</v>
       </c>
       <c r="S37" t="n">
-        <v>3.629859526798659e-09</v>
+        <v>3.699856817949046e-09</v>
       </c>
       <c r="T37" t="n">
-        <v>3.780713922039326e-09</v>
+        <v>3.777595430001135e-09</v>
       </c>
       <c r="U37" t="n">
-        <v>2.217846488728176</v>
+        <v>2.217831521779093</v>
       </c>
       <c r="V37" t="n">
-        <v>3.6322150633808e-05</v>
+        <v>3.70533722192491e-05</v>
       </c>
       <c r="W37" t="n">
-        <v>3.783167366217624e-05</v>
+        <v>3.783190981810525e-05</v>
       </c>
       <c r="X37" t="n">
-        <v>2.217846483503845</v>
+        <v>2.217831526568594</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.210850881890491e-13</v>
+        <v>2.209074171973707e-13</v>
       </c>
       <c r="Z37" t="n">
-        <v>2.714390399977558e-09</v>
+        <v>2.712209960075409e-09</v>
       </c>
     </row>
     <row r="38">
@@ -3442,10 +3442,10 @@
         <v>1591.5</v>
       </c>
       <c r="G38" t="n">
-        <v>19.62</v>
+        <v>19.84</v>
       </c>
       <c r="H38" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I38" t="n">
         <v>10</v>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L38" t="n">
         <v>10</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O38" t="n">
         <v>10</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.227809872887403e-14</v>
+        <v>3.227792122584997e-14</v>
       </c>
       <c r="R38" t="n">
         <v>2.08946806431709</v>
@@ -3508,19 +3508,19 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>49835</v>
+        <v>50024</v>
       </c>
       <c r="E39" t="n">
-        <v>1389</v>
+        <v>1095</v>
       </c>
       <c r="F39" t="n">
         <v>1591.5</v>
       </c>
       <c r="G39" t="n">
-        <v>19.6</v>
+        <v>19.67</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I39" t="n">
         <v>10</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L39" t="n">
         <v>10</v>
@@ -3538,43 +3538,43 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O39" t="n">
         <v>10</v>
       </c>
       <c r="P39" t="n">
-        <v>4.896776512606562e-11</v>
+        <v>4.914352278943121e-11</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.542341906146768e-12</v>
+        <v>1.542343490752941e-12</v>
       </c>
       <c r="R39" t="n">
-        <v>2.570510776734482</v>
+        <v>2.570526428534082</v>
       </c>
       <c r="S39" t="n">
-        <v>1.380033534269806e-09</v>
+        <v>1.080026244211152e-09</v>
       </c>
       <c r="T39" t="n">
-        <v>4.699249223852582e-11</v>
+        <v>4.701291917665803e-11</v>
       </c>
       <c r="U39" t="n">
-        <v>2.011527286039644</v>
+        <v>2.011488060706661</v>
       </c>
       <c r="V39" t="n">
-        <v>0.002818336498775659</v>
+        <v>0.002197766313431115</v>
       </c>
       <c r="W39" t="n">
-        <v>0.0001201959928428484</v>
+        <v>0.0001102077754148721</v>
       </c>
       <c r="X39" t="n">
-        <v>2.040808364709093</v>
+        <v>2.018167507927769</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.222211495024727e-15</v>
+        <v>1.226364101529791e-15</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.615708222552527e-11</v>
+        <v>1.620804444978048e-11</v>
       </c>
     </row>
     <row r="40">
@@ -3592,19 +3592,19 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>146780</v>
+        <v>146641</v>
       </c>
       <c r="E40" t="n">
-        <v>1810</v>
+        <v>1150</v>
       </c>
       <c r="F40" t="n">
         <v>1591.5</v>
       </c>
       <c r="G40" t="n">
-        <v>19.6</v>
+        <v>19.72</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I40" t="n">
         <v>10</v>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L40" t="n">
         <v>10</v>
@@ -3622,43 +3622,43 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O40" t="n">
         <v>10</v>
       </c>
       <c r="P40" t="n">
-        <v>9.696037561573595e-11</v>
+        <v>9.66317921960777e-11</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.053266555500257e-14</v>
+        <v>1.668637823997837e-14</v>
       </c>
       <c r="R40" t="n">
-        <v>2.080744973753272</v>
+        <v>2.039100928429784</v>
       </c>
       <c r="S40" t="n">
-        <v>4.210102303823102e-10</v>
+        <v>5.500133651075312e-11</v>
       </c>
       <c r="T40" t="n">
-        <v>5.50981488299227e-11</v>
+        <v>5.502687629727085e-11</v>
       </c>
       <c r="U40" t="n">
-        <v>2.017254144098068</v>
+        <v>2.017100462588172</v>
       </c>
       <c r="V40" t="n">
-        <v>0.0004342220252377052</v>
+        <v>5.692023666873785e-05</v>
       </c>
       <c r="W40" t="n">
-        <v>5.682723203395644e-05</v>
+        <v>5.694666054223912e-05</v>
       </c>
       <c r="X40" t="n">
-        <v>2.017253990364012</v>
+        <v>2.017100495531135</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.355339758570918e-15</v>
+        <v>3.352263529843501e-15</v>
       </c>
       <c r="Z40" t="n">
-        <v>4.233557055554403e-11</v>
+        <v>4.22978180119125e-11</v>
       </c>
     </row>
     <row r="41">
@@ -3676,19 +3676,19 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>245744</v>
+        <v>245729</v>
       </c>
       <c r="E41" t="n">
-        <v>1373</v>
+        <v>1138</v>
       </c>
       <c r="F41" t="n">
         <v>1591.5</v>
       </c>
       <c r="G41" t="n">
-        <v>19.61</v>
+        <v>19.73</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I41" t="n">
         <v>10</v>
@@ -3697,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L41" t="n">
         <v>10</v>
@@ -3706,43 +3706,43 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O41" t="n">
         <v>10</v>
       </c>
       <c r="P41" t="n">
-        <v>1.959400714477612e-10</v>
+        <v>1.957349627056667e-10</v>
       </c>
       <c r="Q41" t="n">
-        <v>3.388000965136607e-14</v>
+        <v>2.731799912998742e-14</v>
       </c>
       <c r="R41" t="n">
-        <v>2.086878913617935</v>
+        <v>2.047482982003682</v>
       </c>
       <c r="S41" t="n">
-        <v>-1.60003888031282e-11</v>
+        <v>4.300104490840708e-11</v>
       </c>
       <c r="T41" t="n">
-        <v>8.288183172316262e-11</v>
+        <v>8.281565558305324e-11</v>
       </c>
       <c r="U41" t="n">
-        <v>2.088466984044636</v>
+        <v>2.088319158918944</v>
       </c>
       <c r="V41" t="n">
-        <v>-8.166214111390904e-06</v>
+        <v>2.196969815586154e-05</v>
       </c>
       <c r="W41" t="n">
-        <v>4.230089617324633e-05</v>
+        <v>4.231141143693562e-05</v>
       </c>
       <c r="X41" t="n">
-        <v>2.088466982237394</v>
+        <v>2.088319180523273</v>
       </c>
       <c r="Y41" t="n">
-        <v>5.532893066875474e-15</v>
+        <v>5.532533281054457e-15</v>
       </c>
       <c r="Z41" t="n">
-        <v>6.905925841043057e-11</v>
+        <v>6.905484299431248e-11</v>
       </c>
     </row>
     <row r="42">
@@ -3760,19 +3760,19 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>342566</v>
+        <v>342214</v>
       </c>
       <c r="E42" t="n">
-        <v>1774</v>
+        <v>1170</v>
       </c>
       <c r="F42" t="n">
         <v>1591.5</v>
       </c>
       <c r="G42" t="n">
-        <v>19.6</v>
+        <v>19.74</v>
       </c>
       <c r="H42" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I42" t="n">
         <v>10</v>
@@ -3781,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L42" t="n">
         <v>10</v>
@@ -3790,43 +3790,43 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O42" t="n">
         <v>10</v>
       </c>
       <c r="P42" t="n">
-        <v>2.927774275555212e-10</v>
+        <v>2.922347346923622e-10</v>
       </c>
       <c r="Q42" t="n">
-        <v>4.792674209572906e-14</v>
+        <v>3.789112183972134e-14</v>
       </c>
       <c r="R42" t="n">
-        <v>2.088806616678252</v>
+        <v>2.04827494430794</v>
       </c>
       <c r="S42" t="n">
-        <v>3.850093555752719e-10</v>
+        <v>7.500182251466328e-11</v>
       </c>
       <c r="T42" t="n">
-        <v>1.159536626610314e-10</v>
+        <v>1.157615915440642e-10</v>
       </c>
       <c r="U42" t="n">
-        <v>2.142852496221983</v>
+        <v>2.142625417849084</v>
       </c>
       <c r="V42" t="n">
-        <v>0.0001315064883660605</v>
+        <v>2.566572111961755e-05</v>
       </c>
       <c r="W42" t="n">
-        <v>3.960594603144724e-05</v>
+        <v>3.961376623588484e-05</v>
       </c>
       <c r="X42" t="n">
-        <v>2.142852454081031</v>
+        <v>2.142625444428064</v>
       </c>
       <c r="Y42" t="n">
-        <v>7.663314901246192e-15</v>
+        <v>7.655528264761758e-15</v>
       </c>
       <c r="Z42" t="n">
-        <v>9.520453250490761e-11</v>
+        <v>9.510897220700081e-11</v>
       </c>
     </row>
     <row r="43">
@@ -3844,19 +3844,19 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>442268</v>
+        <v>442013</v>
       </c>
       <c r="E43" t="n">
-        <v>1324</v>
+        <v>1123</v>
       </c>
       <c r="F43" t="n">
         <v>1591.5</v>
       </c>
       <c r="G43" t="n">
-        <v>19.62</v>
+        <v>19.74</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I43" t="n">
         <v>10</v>
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L43" t="n">
         <v>10</v>
@@ -3874,43 +3874,43 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O43" t="n">
         <v>10</v>
       </c>
       <c r="P43" t="n">
-        <v>3.924952404354026e-10</v>
+        <v>3.920490140570326e-10</v>
       </c>
       <c r="Q43" t="n">
-        <v>6.09872589609467e-14</v>
+        <v>4.907530166535755e-14</v>
       </c>
       <c r="R43" t="n">
-        <v>2.084960682283007</v>
+        <v>2.04846681443774</v>
       </c>
       <c r="S43" t="n">
-        <v>-6.500157951270861e-11</v>
+        <v>2.800068040547446e-11</v>
       </c>
       <c r="T43" t="n">
-        <v>1.518944536393811e-10</v>
+        <v>1.517316037028433e-10</v>
       </c>
       <c r="U43" t="n">
-        <v>2.173940843074532</v>
+        <v>2.173838561696239</v>
       </c>
       <c r="V43" t="n">
-        <v>-1.65616271794567e-05</v>
+        <v>7.142359522345466e-06</v>
       </c>
       <c r="W43" t="n">
-        <v>3.870089523624214e-05</v>
+        <v>3.870340451158135e-05</v>
       </c>
       <c r="X43" t="n">
-        <v>2.173940838822083</v>
+        <v>2.173838568255253</v>
       </c>
       <c r="Y43" t="n">
-        <v>9.857106784603584e-15</v>
+        <v>9.851442410784507e-15</v>
       </c>
       <c r="Z43" t="n">
-        <v>1.221275057730445e-10</v>
+        <v>1.220579906170861e-10</v>
       </c>
     </row>
     <row r="44">
@@ -3928,19 +3928,19 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>539069</v>
+        <v>538500</v>
       </c>
       <c r="E44" t="n">
-        <v>1704</v>
+        <v>1140</v>
       </c>
       <c r="F44" t="n">
         <v>1591.5</v>
       </c>
       <c r="G44" t="n">
-        <v>19.61</v>
+        <v>19.74</v>
       </c>
       <c r="H44" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I44" t="n">
         <v>10</v>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L44" t="n">
         <v>10</v>
@@ -3958,43 +3958,43 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O44" t="n">
         <v>10</v>
       </c>
       <c r="P44" t="n">
-        <v>4.893115932125326e-10</v>
+        <v>4.885507863499309e-10</v>
       </c>
       <c r="Q44" t="n">
-        <v>7.530720714202139e-14</v>
+        <v>5.993700156816862e-14</v>
       </c>
       <c r="R44" t="n">
-        <v>2.085782681024917</v>
+        <v>2.048310214188488</v>
       </c>
       <c r="S44" t="n">
-        <v>3.150076545615859e-10</v>
+        <v>4.500109350879805e-11</v>
       </c>
       <c r="T44" t="n">
-        <v>1.874886848444561e-10</v>
+        <v>1.872074809042298e-10</v>
       </c>
       <c r="U44" t="n">
-        <v>2.190955266161347</v>
+        <v>2.190852891166817</v>
       </c>
       <c r="V44" t="n">
-        <v>6.437972099110169e-05</v>
+        <v>9.211425397285925e-06</v>
       </c>
       <c r="W44" t="n">
-        <v>3.831801911189199e-05</v>
+        <v>3.83201296510742e-05</v>
       </c>
       <c r="X44" t="n">
-        <v>2.190955256799015</v>
+        <v>2.190852898549399</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.198706654570044e-14</v>
+        <v>1.197448140122827e-14</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.482671091443803e-10</v>
+        <v>1.481126598956751e-10</v>
       </c>
     </row>
     <row r="45">
@@ -4012,19 +4012,19 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>641874</v>
+        <v>641458</v>
       </c>
       <c r="E45" t="n">
-        <v>1678</v>
+        <v>1058</v>
       </c>
       <c r="F45" t="n">
         <v>1591.5</v>
       </c>
       <c r="G45" t="n">
-        <v>19.61</v>
+        <v>19.73</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I45" t="n">
         <v>10</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L45" t="n">
         <v>10</v>
@@ -4042,43 +4042,43 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O45" t="n">
         <v>10</v>
       </c>
       <c r="P45" t="n">
-        <v>5.921328982326546e-10</v>
+        <v>5.915245493618619e-10</v>
       </c>
       <c r="Q45" t="n">
-        <v>8.992685933990013e-14</v>
+        <v>7.189449620118014e-14</v>
       </c>
       <c r="R45" t="n">
-        <v>2.085114059142898</v>
+        <v>2.048827644427055</v>
       </c>
       <c r="S45" t="n">
-        <v>2.890070227565029e-10</v>
+        <v>-3.700089910723395e-11</v>
       </c>
       <c r="T45" t="n">
-        <v>2.256369328770833e-10</v>
+        <v>2.254105805592751e-10</v>
       </c>
       <c r="U45" t="n">
-        <v>2.20175810590358</v>
+        <v>2.20170819120838</v>
       </c>
       <c r="V45" t="n">
-        <v>4.880931290640379e-05</v>
+        <v>-6.25536985238859e-06</v>
       </c>
       <c r="W45" t="n">
-        <v>3.810697610973117e-05</v>
+        <v>3.810789972491809e-05</v>
       </c>
       <c r="X45" t="n">
-        <v>2.201758101020522</v>
+        <v>2.201708186993818</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.424913525614313e-14</v>
+        <v>1.423990418749075e-14</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.760279992652486e-10</v>
+        <v>1.759147123958561e-10</v>
       </c>
     </row>
     <row r="46">
@@ -4096,19 +4096,19 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>740895</v>
+        <v>740537</v>
       </c>
       <c r="E46" t="n">
-        <v>1316</v>
+        <v>1164</v>
       </c>
       <c r="F46" t="n">
         <v>1591.5</v>
       </c>
       <c r="G46" t="n">
-        <v>19.61</v>
+        <v>19.74</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I46" t="n">
         <v>10</v>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L46" t="n">
         <v>10</v>
@@ -4126,43 +4126,43 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O46" t="n">
         <v>10</v>
       </c>
       <c r="P46" t="n">
-        <v>6.911696031049614e-10</v>
+        <v>6.906187184935385e-10</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.04024413012461e-13</v>
+        <v>8.275158148431621e-14</v>
       </c>
       <c r="R46" t="n">
-        <v>2.084578327622443</v>
+        <v>2.047826546831252</v>
       </c>
       <c r="S46" t="n">
-        <v>-7.30017739142723e-11</v>
+        <v>6.900167671349036e-11</v>
       </c>
       <c r="T46" t="n">
-        <v>2.625611581797705e-10</v>
+        <v>2.623554639022679e-10</v>
       </c>
       <c r="U46" t="n">
-        <v>2.208336885223277</v>
+        <v>2.208307022520349</v>
       </c>
       <c r="V46" t="n">
-        <v>-1.05623917736375e-05</v>
+        <v>9.991594205504868e-06</v>
       </c>
       <c r="W46" t="n">
-        <v>3.798912918293097e-05</v>
+        <v>3.798964678642484e-05</v>
       </c>
       <c r="X46" t="n">
-        <v>2.208336883397293</v>
+        <v>2.208307028610939</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.642794276333387e-14</v>
+        <v>1.641997590838764e-14</v>
       </c>
       <c r="Z46" t="n">
-        <v>2.027670790829471e-10</v>
+        <v>2.026693070817031e-10</v>
       </c>
     </row>
     <row r="47">
@@ -4180,19 +4180,19 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>837712</v>
+        <v>837056</v>
       </c>
       <c r="E47" t="n">
-        <v>1790</v>
+        <v>1308</v>
       </c>
       <c r="F47" t="n">
         <v>1591.5</v>
       </c>
       <c r="G47" t="n">
-        <v>19.63</v>
+        <v>19.74</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I47" t="n">
         <v>10</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L47" t="n">
         <v>10</v>
@@ -4210,43 +4210,43 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O47" t="n">
         <v>10</v>
       </c>
       <c r="P47" t="n">
-        <v>7.880019584197144e-10</v>
+        <v>7.87152495685681e-10</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.156743874433009e-13</v>
+        <v>9.366854262768363e-14</v>
       </c>
       <c r="R47" t="n">
-        <v>2.081264545764285</v>
+        <v>2.047615395943771</v>
       </c>
       <c r="S47" t="n">
-        <v>4.010097443783999e-10</v>
+        <v>2.13005175941644e-10</v>
       </c>
       <c r="T47" t="n">
-        <v>2.987648076281476e-10</v>
+        <v>2.984469141369528e-10</v>
       </c>
       <c r="U47" t="n">
-        <v>2.212681187864252</v>
+        <v>2.212649270271643</v>
       </c>
       <c r="V47" t="n">
-        <v>5.089101558521661e-05</v>
+        <v>2.706105778823811e-05</v>
       </c>
       <c r="W47" t="n">
-        <v>3.791539925557584e-05</v>
+        <v>3.791592906950733e-05</v>
       </c>
       <c r="X47" t="n">
-        <v>2.212681181346239</v>
+        <v>2.212649285651958</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.855825458025844e-14</v>
+        <v>1.854371900661477e-14</v>
       </c>
       <c r="Z47" t="n">
-        <v>2.289110030052477e-10</v>
+        <v>2.287326174147027e-10</v>
       </c>
     </row>
     <row r="48">
@@ -4264,19 +4264,19 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>937432</v>
+        <v>936847</v>
       </c>
       <c r="E48" t="n">
-        <v>1496</v>
+        <v>1426</v>
       </c>
       <c r="F48" t="n">
         <v>1591.5</v>
       </c>
       <c r="G48" t="n">
-        <v>19.63</v>
+        <v>19.74</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I48" t="n">
         <v>10</v>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L48" t="n">
         <v>10</v>
@@ -4294,43 +4294,43 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O48" t="n">
         <v>10</v>
       </c>
       <c r="P48" t="n">
-        <v>8.877377741544216e-10</v>
+        <v>8.869587738255403e-10</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.296384176050101e-13</v>
+        <v>1.049624921408368e-13</v>
       </c>
       <c r="R48" t="n">
-        <v>2.08091175032631</v>
+        <v>2.047421614554705</v>
       </c>
       <c r="S48" t="n">
-        <v>1.070026001209197e-10</v>
+        <v>3.310080433647141e-10</v>
       </c>
       <c r="T48" t="n">
-        <v>3.361214559999718e-10</v>
+        <v>3.358295046576597e-10</v>
       </c>
       <c r="U48" t="n">
-        <v>2.215831287323922</v>
+        <v>2.21581029107883</v>
       </c>
       <c r="V48" t="n">
-        <v>1.205377608850688e-05</v>
+        <v>3.732059865917611e-05</v>
       </c>
       <c r="W48" t="n">
-        <v>3.786387213353302e-05</v>
+        <v>3.786421002677207e-05</v>
       </c>
       <c r="X48" t="n">
-        <v>2.215831287805894</v>
+        <v>2.215810310843318</v>
       </c>
       <c r="Y48" t="n">
-        <v>2.0752442526422e-14</v>
+        <v>2.073945712569167e-14</v>
       </c>
       <c r="Z48" t="n">
-        <v>2.5583883689322e-10</v>
+        <v>2.556794755611854e-10</v>
       </c>
     </row>
     <row r="49">
@@ -4348,19 +4348,19 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1034036</v>
+        <v>1033147</v>
       </c>
       <c r="E49" t="n">
-        <v>1964</v>
+        <v>1534</v>
       </c>
       <c r="F49" t="n">
         <v>1591.5</v>
       </c>
       <c r="G49" t="n">
-        <v>19.63</v>
+        <v>19.74</v>
       </c>
       <c r="H49" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I49" t="n">
         <v>10</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L49" t="n">
         <v>10</v>
@@ -4378,43 +4378,43 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O49" t="n">
         <v>10</v>
       </c>
       <c r="P49" t="n">
-        <v>9.843570956870693e-10</v>
+        <v>9.832735174884803e-10</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.431709563523249e-13</v>
+        <v>1.158660995123804e-13</v>
       </c>
       <c r="R49" t="n">
-        <v>2.080621725870039</v>
+        <v>2.047257026438235</v>
       </c>
       <c r="S49" t="n">
-        <v>5.750139726124185e-10</v>
+        <v>4.390106677858294e-10</v>
       </c>
       <c r="T49" t="n">
-        <v>3.723555103752541e-10</v>
+        <v>3.719489798988287e-10</v>
       </c>
       <c r="U49" t="n">
-        <v>2.218054426716381</v>
+        <v>2.218032757215017</v>
       </c>
       <c r="V49" t="n">
-        <v>5.841699467387596e-05</v>
+        <v>4.464925530417015e-05</v>
       </c>
       <c r="W49" t="n">
-        <v>3.782845473791717e-05</v>
+        <v>3.782879565991914e-05</v>
       </c>
       <c r="X49" t="n">
-        <v>2.218054416017783</v>
+        <v>2.218032779468322</v>
       </c>
       <c r="Y49" t="n">
-        <v>2.287806760014025e-14</v>
+        <v>2.285838148627636e-14</v>
       </c>
       <c r="Z49" t="n">
-        <v>2.819252434808019e-10</v>
+        <v>2.816836486780624e-10</v>
       </c>
     </row>
     <row r="50">
@@ -4435,16 +4435,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F50" t="n">
         <v>1591.4</v>
       </c>
       <c r="G50" t="n">
-        <v>19.64</v>
+        <v>19.84</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I50" t="n">
         <v>10</v>
@@ -4453,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L50" t="n">
         <v>10</v>
@@ -4462,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O50" t="n">
         <v>10</v>
@@ -4471,19 +4471,19 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>3.228100319439416e-15</v>
+        <v>3.228082567672247e-15</v>
       </c>
       <c r="R50" t="n">
-        <v>2.089469961424211</v>
+        <v>2.089469961393533</v>
       </c>
       <c r="S50" t="n">
-        <v>1.400034020273716e-11</v>
+        <v>1.700041310332369e-11</v>
       </c>
       <c r="T50" t="n">
-        <v>3.227666850264918e-11</v>
+        <v>3.227666850367988e-11</v>
       </c>
       <c r="U50" t="n">
-        <v>2.089469961438545</v>
+        <v>2.089469961414669</v>
       </c>
       <c r="V50" t="n">
         <v>1.25675505843911e-16</v>
@@ -4507,19 +4507,19 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>999876</v>
+        <v>999924</v>
       </c>
       <c r="E51" t="n">
-        <v>-176</v>
+        <v>-113</v>
       </c>
       <c r="F51" t="n">
         <v>1591.4</v>
       </c>
       <c r="G51" t="n">
-        <v>19.64</v>
+        <v>19.62</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I51" t="n">
         <v>10</v>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L51" t="n">
         <v>10</v>
@@ -4537,34 +4537,34 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O51" t="n">
         <v>10</v>
       </c>
       <c r="P51" t="n">
-        <v>1.000034581764502e-09</v>
+        <v>1.000077089744774e-09</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.390920593750543e-13</v>
+        <v>1.207944163534109e-13</v>
       </c>
       <c r="R51" t="n">
-        <v>2.075840762240309</v>
+        <v>2.055102898256966</v>
       </c>
       <c r="S51" t="n">
-        <v>-1.7600427683441e-10</v>
+        <v>-1.130027459220928e-10</v>
       </c>
       <c r="T51" t="n">
-        <v>3.774523850141627e-10</v>
+        <v>3.774683668217422e-10</v>
       </c>
       <c r="U51" t="n">
-        <v>2.223179837972311</v>
+        <v>2.22318025227802</v>
       </c>
       <c r="V51" t="n">
-        <v>2.212643630466295e-14</v>
+        <v>2.212737148022893e-14</v>
       </c>
       <c r="W51" t="n">
-        <v>2.726837323380047e-10</v>
+        <v>2.726952084150856e-10</v>
       </c>
     </row>
     <row r="52">
@@ -4582,19 +4582,19 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>999862</v>
+        <v>999907</v>
       </c>
       <c r="E52" t="n">
-        <v>-166</v>
+        <v>-83</v>
       </c>
       <c r="F52" t="n">
         <v>1591.4</v>
       </c>
       <c r="G52" t="n">
-        <v>19.64</v>
+        <v>19.62</v>
       </c>
       <c r="H52" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I52" t="n">
         <v>10</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L52" t="n">
         <v>10</v>
@@ -4612,34 +4612,34 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O52" t="n">
         <v>10</v>
       </c>
       <c r="P52" t="n">
-        <v>1.000020579544082e-09</v>
+        <v>1.00006008714205e-09</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.390901126358698e-13</v>
+        <v>1.207923638360952e-13</v>
       </c>
       <c r="R52" t="n">
-        <v>2.075840758597694</v>
+        <v>2.055102893583844</v>
       </c>
       <c r="S52" t="n">
-        <v>-1.660040338324549e-10</v>
+        <v>-8.300201691622744e-11</v>
       </c>
       <c r="T52" t="n">
-        <v>3.774471205628573e-10</v>
+        <v>3.774619742163098e-10</v>
       </c>
       <c r="U52" t="n">
-        <v>2.223179701554897</v>
+        <v>2.223180087262616</v>
       </c>
       <c r="V52" t="n">
-        <v>2.21261282558137e-14</v>
+        <v>2.212699742296902e-14</v>
       </c>
       <c r="W52" t="n">
-        <v>2.726799520934525e-10</v>
+        <v>2.726906181433723e-10</v>
       </c>
     </row>
     <row r="53">
@@ -4657,19 +4657,19 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>60186</v>
+        <v>60487</v>
       </c>
       <c r="E53" t="n">
-        <v>1397</v>
+        <v>1341</v>
       </c>
       <c r="F53" t="n">
         <v>1591.7</v>
       </c>
       <c r="G53" t="n">
-        <v>19.67</v>
+        <v>19.62</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I53" t="n">
         <v>10</v>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L53" t="n">
         <v>10</v>
@@ -4687,43 +4687,43 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O53" t="n">
         <v>10</v>
       </c>
       <c r="P53" t="n">
-        <v>1.035264168341311e-11</v>
+        <v>1.046460189974395e-11</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.28527895150574e-12</v>
+        <v>1.285280419110367e-12</v>
       </c>
       <c r="R53" t="n">
-        <v>2.570439988706038</v>
+        <v>2.570457394255733</v>
       </c>
       <c r="S53" t="n">
-        <v>8.000194401564102e-12</v>
+        <v>2.460059778480956e-10</v>
       </c>
       <c r="T53" t="n">
-        <v>4.431009649865197e-11</v>
+        <v>4.431318261136446e-11</v>
       </c>
       <c r="U53" t="n">
-        <v>2.021906770626415</v>
+        <v>2.021886938264355</v>
       </c>
       <c r="V53" t="n">
-        <v>7.727924066991011e-05</v>
+        <v>0.002350912351804133</v>
       </c>
       <c r="W53" t="n">
-        <v>0.0004280790497601514</v>
+        <v>0.0004804886736350484</v>
       </c>
       <c r="X53" t="n">
-        <v>2.021867154759557</v>
+        <v>2.021710192067186</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.449953821696158e-15</v>
+        <v>1.4565695529605e-15</v>
       </c>
       <c r="Z53" t="n">
-        <v>1.895459034405218e-11</v>
+        <v>1.903579109086698e-11</v>
       </c>
     </row>
     <row r="54">
@@ -4741,19 +4741,19 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>70925</v>
+        <v>71300</v>
       </c>
       <c r="E54" t="n">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="F54" t="n">
         <v>1591.7</v>
       </c>
       <c r="G54" t="n">
-        <v>19.65</v>
+        <v>19.61</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I54" t="n">
         <v>10</v>
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L54" t="n">
         <v>10</v>
@@ -4771,43 +4771,43 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O54" t="n">
         <v>10</v>
       </c>
       <c r="P54" t="n">
-        <v>2.109334490418148e-11</v>
+        <v>2.127925738497107e-11</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.285276312718846e-12</v>
+        <v>1.285278265356133e-12</v>
       </c>
       <c r="R54" t="n">
-        <v>2.570408688208088</v>
+        <v>2.570431851599586</v>
       </c>
       <c r="S54" t="n">
-        <v>8.000194401564102e-12</v>
+        <v>2.960071928578714e-10</v>
       </c>
       <c r="T54" t="n">
-        <v>4.470232714205846e-11</v>
+        <v>4.471191281729928e-11</v>
       </c>
       <c r="U54" t="n">
-        <v>2.019574887133381</v>
+        <v>2.019521916119332</v>
       </c>
       <c r="V54" t="n">
-        <v>3.792875392006825e-05</v>
+        <v>0.001391102994276214</v>
       </c>
       <c r="W54" t="n">
-        <v>0.0002119396260570732</v>
+        <v>0.0002195487245487182</v>
       </c>
       <c r="X54" t="n">
-        <v>2.019565885290723</v>
+        <v>2.013079390746731</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.686249292553062e-15</v>
+        <v>1.694491973635496e-15</v>
       </c>
       <c r="Z54" t="n">
-        <v>2.18548545681982e-11</v>
+        <v>2.19560243154123e-11</v>
       </c>
     </row>
     <row r="55">
@@ -4825,19 +4825,19 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>81559</v>
+        <v>81517</v>
       </c>
       <c r="E55" t="n">
-        <v>1384</v>
+        <v>1332</v>
       </c>
       <c r="F55" t="n">
         <v>1591.7</v>
       </c>
       <c r="G55" t="n">
-        <v>19.62</v>
+        <v>19.6</v>
       </c>
       <c r="H55" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I55" t="n">
         <v>10</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L55" t="n">
         <v>10</v>
@@ -4855,43 +4855,43 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O55" t="n">
         <v>10</v>
       </c>
       <c r="P55" t="n">
-        <v>3.172903147179955e-11</v>
+        <v>3.149782162177543e-11</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.285272672733427e-12</v>
+        <v>1.285275773901068e-12</v>
       </c>
       <c r="R55" t="n">
-        <v>2.570365498277552</v>
+        <v>2.570402297343509</v>
       </c>
       <c r="S55" t="n">
-        <v>-5.000121500977745e-12</v>
+        <v>2.370057591463363e-10</v>
       </c>
       <c r="T55" t="n">
-        <v>4.535846968450558e-11</v>
+        <v>4.534172375616342e-11</v>
       </c>
       <c r="U55" t="n">
-        <v>2.016398032913536</v>
+        <v>2.016468419967356</v>
       </c>
       <c r="V55" t="n">
-        <v>-1.575931117163404e-05</v>
+        <v>0.0007524746416808101</v>
       </c>
       <c r="W55" t="n">
-        <v>0.0001429609508509312</v>
+        <v>0.0001457587743583932</v>
       </c>
       <c r="X55" t="n">
-        <v>2.01639660749245</v>
+        <v>2.013723530987257</v>
       </c>
       <c r="Y55" t="n">
-        <v>1.920234397040659e-15</v>
+        <v>1.919300386845192e-15</v>
       </c>
       <c r="Z55" t="n">
-        <v>2.472676161350676e-11</v>
+        <v>2.471529767666076e-11</v>
       </c>
     </row>
     <row r="56">
@@ -4909,19 +4909,19 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>91751</v>
+        <v>91813</v>
       </c>
       <c r="E56" t="n">
-        <v>1381</v>
+        <v>1324</v>
       </c>
       <c r="F56" t="n">
         <v>1591.7</v>
       </c>
       <c r="G56" t="n">
-        <v>19.62</v>
+        <v>19.6</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I56" t="n">
         <v>10</v>
@@ -4930,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L56" t="n">
         <v>10</v>
@@ -4939,43 +4939,43 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O56" t="n">
         <v>10</v>
       </c>
       <c r="P56" t="n">
-        <v>4.192264793758512e-11</v>
+        <v>4.179539795358884e-11</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.285269223168835e-12</v>
+        <v>1.285272978999695e-12</v>
       </c>
       <c r="R56" t="n">
-        <v>2.57032455376635</v>
+        <v>2.570369135191243</v>
       </c>
       <c r="S56" t="n">
-        <v>-8.000194401564102e-12</v>
+        <v>2.290055647447718e-10</v>
       </c>
       <c r="T56" t="n">
-        <v>4.624033531853778e-11</v>
+        <v>4.622816312602184e-11</v>
       </c>
       <c r="U56" t="n">
-        <v>2.013305221495969</v>
+        <v>2.01333911033839</v>
       </c>
       <c r="V56" t="n">
-        <v>-1.908382050229602e-05</v>
+        <v>0.0005479375450804437</v>
       </c>
       <c r="W56" t="n">
-        <v>0.0001103034514632702</v>
+        <v>0.0001113147908596344</v>
       </c>
       <c r="X56" t="n">
-        <v>2.013303329345361</v>
+        <v>2.011911540537266</v>
       </c>
       <c r="Y56" t="n">
-        <v>2.144493959287942e-15</v>
+        <v>2.145847066145087e-15</v>
       </c>
       <c r="Z56" t="n">
-        <v>2.747929843932818e-11</v>
+        <v>2.749590632180259e-11</v>
       </c>
     </row>
     <row r="57">
@@ -4993,19 +4993,19 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>101490</v>
+        <v>101710</v>
       </c>
       <c r="E57" t="n">
-        <v>1391</v>
+        <v>1334</v>
       </c>
       <c r="F57" t="n">
         <v>1591.7</v>
       </c>
       <c r="G57" t="n">
-        <v>19.63</v>
+        <v>19.61</v>
       </c>
       <c r="H57" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I57" t="n">
         <v>10</v>
@@ -5014,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L57" t="n">
         <v>10</v>
@@ -5023,43 +5023,43 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O57" t="n">
         <v>10</v>
       </c>
       <c r="P57" t="n">
-        <v>5.166319255692239e-11</v>
+        <v>5.169391319795142e-11</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.285265862133543e-12</v>
+        <v>1.285270134620324e-12</v>
       </c>
       <c r="R57" t="n">
-        <v>2.570284647138547</v>
+        <v>2.570335377028023</v>
       </c>
       <c r="S57" t="n">
-        <v>2.000048600390974e-12</v>
+        <v>2.390058077467271e-10</v>
       </c>
       <c r="T57" t="n">
-        <v>4.731473865410189e-11</v>
+        <v>4.731884639575811e-11</v>
       </c>
       <c r="U57" t="n">
-        <v>2.010965505505486</v>
+        <v>2.010957873755809</v>
       </c>
       <c r="V57" t="n">
-        <v>3.871442358794984e-06</v>
+        <v>0.0004623624259030588</v>
       </c>
       <c r="W57" t="n">
-        <v>9.158594376058613e-05</v>
+        <v>9.193668602993805e-05</v>
       </c>
       <c r="X57" t="n">
-        <v>2.010965435142203</v>
+        <v>2.010009213002633</v>
       </c>
       <c r="Y57" t="n">
-        <v>2.358785940913362e-15</v>
+        <v>2.363614401521064e-15</v>
       </c>
       <c r="Z57" t="n">
-        <v>3.010949429359375e-11</v>
+        <v>3.016875827993862e-11</v>
       </c>
     </row>
     <row r="58">
@@ -5077,19 +5077,19 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>110971</v>
+        <v>111557</v>
       </c>
       <c r="E58" t="n">
-        <v>1386</v>
+        <v>1338</v>
       </c>
       <c r="F58" t="n">
         <v>1591.7</v>
       </c>
       <c r="G58" t="n">
-        <v>19.62</v>
+        <v>19.61</v>
       </c>
       <c r="H58" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I58" t="n">
         <v>10</v>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L58" t="n">
         <v>10</v>
@@ -5107,43 +5107,43 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O58" t="n">
         <v>10</v>
       </c>
       <c r="P58" t="n">
-        <v>6.114569625709045e-11</v>
+        <v>6.154242078724498e-11</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.285261358837908e-12</v>
+        <v>1.285266783322761e-12</v>
       </c>
       <c r="R58" t="n">
-        <v>2.570231156902682</v>
+        <v>2.570295590721453</v>
       </c>
       <c r="S58" t="n">
-        <v>-3.000072900586564e-12</v>
+        <v>2.430059049475092e-10</v>
       </c>
       <c r="T58" t="n">
-        <v>4.857534274490263e-11</v>
+        <v>4.863297357483143e-11</v>
       </c>
       <c r="U58" t="n">
-        <v>2.009732453804461</v>
+        <v>2.009706461546651</v>
       </c>
       <c r="V58" t="n">
-        <v>-4.90658585065007e-06</v>
+        <v>0.0003948714552316487</v>
       </c>
       <c r="W58" t="n">
-        <v>7.944446958156125e-05</v>
+        <v>7.926283877636506e-05</v>
       </c>
       <c r="X58" t="n">
-        <v>2.009732348178817</v>
+        <v>2.009056782785431</v>
       </c>
       <c r="Y58" t="n">
-        <v>2.567401022317059e-15</v>
+        <v>2.580281568485522e-15</v>
       </c>
       <c r="Z58" t="n">
-        <v>3.267001250843018e-11</v>
+        <v>3.282810689383835e-11</v>
       </c>
     </row>
     <row r="59">
@@ -5161,10 +5161,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>120502</v>
+        <v>120990</v>
       </c>
       <c r="E59" t="n">
-        <v>1384</v>
+        <v>1319</v>
       </c>
       <c r="F59" t="n">
         <v>1591.7</v>
@@ -5173,7 +5173,7 @@
         <v>19.61</v>
       </c>
       <c r="H59" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I59" t="n">
         <v>10</v>
@@ -5182,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L59" t="n">
         <v>10</v>
@@ -5191,43 +5191,43 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O59" t="n">
         <v>10</v>
       </c>
       <c r="P59" t="n">
-        <v>7.067820788733009e-11</v>
+        <v>7.097686499256706e-11</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.285256220206761e-12</v>
+        <v>1.285263243956929e-12</v>
       </c>
       <c r="R59" t="n">
-        <v>2.57017009116574</v>
+        <v>2.57025355789522</v>
       </c>
       <c r="S59" t="n">
-        <v>-5.000121500977745e-12</v>
+        <v>2.240054432437947e-10</v>
       </c>
       <c r="T59" t="n">
-        <v>5.004978260572598e-11</v>
+        <v>5.009957200385247e-11</v>
       </c>
       <c r="U59" t="n">
-        <v>2.009811743220769</v>
+        <v>2.009835703383513</v>
       </c>
       <c r="V59" t="n">
-        <v>-7.074707962824488e-06</v>
+        <v>0.0003156132645835655</v>
       </c>
       <c r="W59" t="n">
-        <v>7.081586270153943e-05</v>
+        <v>7.071518619740376e-05</v>
       </c>
       <c r="X59" t="n">
-        <v>2.009811536292593</v>
+        <v>2.009436689337139</v>
       </c>
       <c r="Y59" t="n">
-        <v>2.777116278182331e-15</v>
+        <v>2.787839341002608e-15</v>
       </c>
       <c r="Z59" t="n">
-        <v>3.524403414176064e-11</v>
+        <v>3.537564781746139e-11</v>
       </c>
     </row>
     <row r="60">
@@ -5245,19 +5245,19 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>130053</v>
+        <v>130672</v>
       </c>
       <c r="E60" t="n">
-        <v>1378</v>
+        <v>1315</v>
       </c>
       <c r="F60" t="n">
         <v>1591.7</v>
       </c>
       <c r="G60" t="n">
-        <v>19.62</v>
+        <v>19.61</v>
       </c>
       <c r="H60" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I60" t="n">
         <v>10</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L60" t="n">
         <v>10</v>
@@ -5275,43 +5275,43 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O60" t="n">
         <v>10</v>
       </c>
       <c r="P60" t="n">
-        <v>8.023072268959829e-11</v>
+        <v>8.066034732013288e-11</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.285251798343024e-12</v>
+        <v>1.285259276866171e-12</v>
       </c>
       <c r="R60" t="n">
-        <v>2.570117520147944</v>
+        <v>2.570206428646815</v>
       </c>
       <c r="S60" t="n">
-        <v>-1.100026730215087e-11</v>
+        <v>2.200053460430125e-10</v>
       </c>
       <c r="T60" t="n">
-        <v>5.172627189885636e-11</v>
+        <v>5.180649343329099e-11</v>
       </c>
       <c r="U60" t="n">
-        <v>2.011325402358168</v>
+        <v>2.011425687181173</v>
       </c>
       <c r="V60" t="n">
-        <v>-1.371121759130873e-05</v>
+        <v>0.0002727637390250691</v>
       </c>
       <c r="W60" t="n">
-        <v>6.447410874129987e-05</v>
+        <v>6.431060109692855e-05</v>
       </c>
       <c r="X60" t="n">
-        <v>2.011324652203733</v>
+        <v>2.011135067415435</v>
       </c>
       <c r="Y60" t="n">
-        <v>2.987271603832231e-15</v>
+        <v>3.000875952209055e-15</v>
       </c>
       <c r="Z60" t="n">
-        <v>3.782345714248868e-11</v>
+        <v>3.799043539538129e-11</v>
       </c>
     </row>
     <row r="61">
@@ -5329,19 +5329,19 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>140171</v>
+        <v>140694</v>
       </c>
       <c r="E61" t="n">
-        <v>1372</v>
+        <v>1310</v>
       </c>
       <c r="F61" t="n">
         <v>1591.7</v>
       </c>
       <c r="G61" t="n">
-        <v>19.6</v>
+        <v>19.61</v>
       </c>
       <c r="H61" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I61" t="n">
         <v>10</v>
@@ -5350,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L61" t="n">
         <v>10</v>
@@ -5359,43 +5359,43 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O61" t="n">
         <v>10</v>
       </c>
       <c r="P61" t="n">
-        <v>9.035032741887796e-11</v>
+        <v>9.068388170216802e-11</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.285244431601794e-12</v>
+        <v>1.28525481431002e-12</v>
       </c>
       <c r="R61" t="n">
-        <v>2.570029883606946</v>
+        <v>2.570153391953021</v>
       </c>
       <c r="S61" t="n">
-        <v>-1.700041310332359e-11</v>
+        <v>2.15005224542035e-10</v>
       </c>
       <c r="T61" t="n">
-        <v>5.370621301485626e-11</v>
+        <v>5.37751732360544e-11</v>
       </c>
       <c r="U61" t="n">
-        <v>2.014454681104174</v>
+        <v>2.014581573326469</v>
       </c>
       <c r="V61" t="n">
-        <v>-1.881669011103267e-05</v>
+        <v>0.0002371004619826224</v>
       </c>
       <c r="W61" t="n">
-        <v>5.944436553824103e-05</v>
+        <v>5.935342028922225e-05</v>
       </c>
       <c r="X61" t="n">
-        <v>2.014453284930103</v>
+        <v>2.01436302638117</v>
       </c>
       <c r="Y61" t="n">
-        <v>3.209902907876384e-15</v>
+        <v>3.221393708613829e-15</v>
       </c>
       <c r="Z61" t="n">
-        <v>4.055600890893895e-11</v>
+        <v>4.069704571410811e-11</v>
       </c>
     </row>
     <row r="62">
@@ -5413,19 +5413,19 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>150009</v>
+        <v>150067</v>
       </c>
       <c r="E62" t="n">
-        <v>1360</v>
+        <v>1304</v>
       </c>
       <c r="F62" t="n">
         <v>1591.7</v>
       </c>
       <c r="G62" t="n">
-        <v>19.61</v>
+        <v>19.62</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I62" t="n">
         <v>10</v>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L62" t="n">
         <v>10</v>
@@ -5443,43 +5443,43 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O62" t="n">
         <v>10</v>
       </c>
       <c r="P62" t="n">
-        <v>1.001898877397569e-10</v>
+        <v>1.000583167214073e-10</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.285239040157345e-12</v>
+        <v>1.285250754844017e-12</v>
       </c>
       <c r="R62" t="n">
-        <v>2.569965708907531</v>
+        <v>2.570105126999642</v>
       </c>
       <c r="S62" t="n">
-        <v>-2.900070470567005e-11</v>
+        <v>2.090050787408618e-10</v>
       </c>
       <c r="T62" t="n">
-        <v>5.581734135468183e-11</v>
+        <v>5.578826445358355e-11</v>
       </c>
       <c r="U62" t="n">
-        <v>2.018849404241477</v>
+        <v>2.018781394531333</v>
       </c>
       <c r="V62" t="n">
-        <v>-2.894663932888412e-05</v>
+        <v>0.0002088897526428544</v>
       </c>
       <c r="W62" t="n">
-        <v>5.571395492557149e-05</v>
+        <v>5.579252706549873e-05</v>
       </c>
       <c r="X62" t="n">
-        <v>2.018846079166346</v>
+        <v>2.018609996928514</v>
       </c>
       <c r="Y62" t="n">
-        <v>3.426373234935721e-15</v>
+        <v>3.427631279037093e-15</v>
       </c>
       <c r="Z62" t="n">
-        <v>4.321294153182269e-11</v>
+        <v>4.322838262464758e-11</v>
       </c>
     </row>
     <row r="63">
@@ -5497,19 +5497,19 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>875</v>
+        <v>888</v>
       </c>
       <c r="E63" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F63" t="n">
         <v>1591.6</v>
       </c>
       <c r="G63" t="n">
-        <v>19.61</v>
+        <v>19.75</v>
       </c>
       <c r="H63" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I63" t="n">
         <v>10</v>
@@ -5518,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0.0001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="L63" t="n">
         <v>10</v>
@@ -5527,34 +5527,34 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="O63" t="n">
         <v>10</v>
       </c>
       <c r="P63" t="n">
-        <v>8.751387762521942e-13</v>
+        <v>8.881359540258651e-13</v>
       </c>
       <c r="Q63" t="n">
-        <v>3.229724119539017e-15</v>
+        <v>3.229107068113866e-15</v>
       </c>
       <c r="R63" t="n">
-        <v>2.089051175972041</v>
+        <v>2.089189126690029</v>
       </c>
       <c r="S63" t="n">
-        <v>9.000218701759602e-12</v>
+        <v>1.500036450293267e-11</v>
       </c>
       <c r="T63" t="n">
-        <v>3.227601808820833e-11</v>
+        <v>3.227605079495323e-11</v>
       </c>
       <c r="U63" t="n">
-        <v>2.089440899478715</v>
+        <v>2.089440142246899</v>
       </c>
       <c r="V63" t="n">
-        <v>1.449127665734015e-16</v>
+        <v>1.451987044844223e-16</v>
       </c>
       <c r="W63" t="n">
-        <v>2.936380765690708e-12</v>
+        <v>2.939890115190341e-12</v>
       </c>
     </row>
   </sheetData>
